--- a/docs/argo-sched-notif.xlsx
+++ b/docs/argo-sched-notif.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>Schedule.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>Schedule.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>Schedule.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -262,7 +262,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -292,7 +292,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -349,7 +349,7 @@
     <t>Schedule.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -368,7 +368,7 @@
     <t>Schedule.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>Schedule.serviceCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -442,8 +442,8 @@
     <t>Schedule.actor</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/StructureDefinition/Patient}
-Reference {http://hl7.org/fhir/StructureDefinition/Practitioner}Reference {http://hl7.org/fhir/StructureDefinition/PractitionerRole}Reference {http://hl7.org/fhir/StructureDefinition/RelatedPerson}Reference {http://hl7.org/fhir/StructureDefinition/Device}Reference {http://hl7.org/fhir/StructureDefinition/HealthcareService}Reference {http://hl7.org/fhir/StructureDefinition/Location}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/HealthcareService], CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+</t>
   </si>
   <si>
     <t>The resource this Schedule resource is providing availability information for. These are expected to usually be one of HealthcareService, Location, Practitioner, PractitionerRole, Device, Patient or RelatedPerson</t>
@@ -464,7 +464,7 @@
     <t>Schedule.actor.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>Schedule.planningHorizon</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -578,7 +578,7 @@
     <t>Schedule.planningHorizon.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
